--- a/data/PSC.xlsx
+++ b/data/PSC.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PHYS 121 or PHYS 131 or PHYS 141 or PSC 101.</t>
+          <t>PHYS 121 or PHYS 131 or PHYS 141 or PSC 101.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -432,12 +477,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PSC 101 or PHYS 121 or PHYS 131 or PHYS 141. Recommended: PSC 102.</t>
+          <t>PSC 101 or PHYS 121 or PHYS 131 or PHYS 141.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PSC 102.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -525,6 +630,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -542,12 +662,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area B1 with a grade of C- or better in at least one of the courses; and completion of GE Areas B2, B3, and B4. Recommended: UNIV 391 and completion of GE Areas D2 and D3.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area B1 with a grade of C- or better in at least one of the courses; and completion of GE Areas B2, B3, and B4.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>UNIV 391 and completion of GE Areas D2 and D3.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -586,12 +736,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Acceptance into the Single Subject Credential Program in Science. Concurrent: EDUC 469 or EDUC 479.</t>
+          <t>Acceptance into the Single Subject Credential Program in Science.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>EDUC 469 or EDUC 479.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -608,12 +773,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Consent of instructor, and senior or graduate standing. Corequisite: GE Area D5.</t>
+          <t>Consent of instructor, and senior or graduate standing.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>GE Area D5.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -630,12 +810,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Junior standing and completion of GE Area B, or graduate standing. Recommended: UNIV 391, GE Area D2, and GE Area D3.</t>
+          <t>Junior standing and completion of GE Area B, or graduate standing.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>UNIV 391, GE Area D2, and GE Area D3.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
